--- a/Exported from gridview.xlsx
+++ b/Exported from gridview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anastasia.golovko\source\repos\Курсовая\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF7B876-2961-4512-8689-4B6361842DB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EA868B-57BB-44D9-8C72-F57BF6BC052E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D19A206D-9A4D-4E4F-895C-49DE5E9559FF}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -401,7 +401,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>11700</v>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
